--- a/ResultadoEleicoesDistritos/SETÚBAL_BARREIRO.xlsx
+++ b/ResultadoEleicoesDistritos/SETÚBAL_BARREIRO.xlsx
@@ -597,64 +597,64 @@
         <v>20418</v>
       </c>
       <c r="H2" t="n">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="I2" t="n">
-        <v>2047</v>
+        <v>2022</v>
       </c>
       <c r="J2" t="n">
-        <v>8248</v>
+        <v>8334</v>
       </c>
       <c r="K2" t="n">
+        <v>41</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2311</v>
+      </c>
+      <c r="M2" t="n">
+        <v>133</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1516</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P2" t="n">
         <v>42</v>
       </c>
-      <c r="L2" t="n">
-        <v>2305</v>
-      </c>
-      <c r="M2" t="n">
-        <v>156</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1489</v>
-      </c>
-      <c r="O2" t="n">
-        <v>8</v>
-      </c>
-      <c r="P2" t="n">
-        <v>38</v>
-      </c>
       <c r="Q2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="R2" t="n">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="S2" t="n">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="T2" t="n">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="U2" t="n">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="V2" t="n">
-        <v>13040</v>
+        <v>13180</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>13211</v>
+        <v>12964</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="AA2" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
